--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rtn4-Lingo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rtn4-Lingo1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.797777</v>
+        <v>11.14494766666667</v>
       </c>
       <c r="H2">
-        <v>122.393331</v>
+        <v>33.434843</v>
       </c>
       <c r="I2">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="J2">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,16 +564,16 @@
         <v>0.9776944302049534</v>
       </c>
       <c r="Q2">
-        <v>37.68660652227499</v>
+        <v>10.29505253251944</v>
       </c>
       <c r="R2">
-        <v>339.1794587004749</v>
+        <v>92.655472792675</v>
       </c>
       <c r="S2">
-        <v>0.2629246640773096</v>
+        <v>0.1251271758759513</v>
       </c>
       <c r="T2">
-        <v>0.2629246640773096</v>
+        <v>0.1251271758759513</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.797777</v>
+        <v>11.14494766666667</v>
       </c>
       <c r="H3">
-        <v>122.393331</v>
+        <v>33.434843</v>
       </c>
       <c r="I3">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="J3">
-        <v>0.2689231481273683</v>
+        <v>0.1279818847384872</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>0.02230556979504659</v>
       </c>
       <c r="Q3">
-        <v>0.859799551016</v>
+        <v>0.2348760570924445</v>
       </c>
       <c r="R3">
-        <v>7.738195959144</v>
+        <v>2.113884513832</v>
       </c>
       <c r="S3">
-        <v>0.005998484050058666</v>
+        <v>0.002854708862535935</v>
       </c>
       <c r="T3">
-        <v>0.005998484050058666</v>
+        <v>0.002854708862535935</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>138.659493</v>
       </c>
       <c r="I4">
-        <v>0.3046632285488233</v>
+        <v>0.5307607770439682</v>
       </c>
       <c r="J4">
-        <v>0.3046632285488233</v>
+        <v>0.5307607770439681</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -694,10 +694,10 @@
         <v>384.256653488925</v>
       </c>
       <c r="S4">
-        <v>0.2978675416404433</v>
+        <v>0.5189218554871408</v>
       </c>
       <c r="T4">
-        <v>0.2978675416404433</v>
+        <v>0.5189218554871406</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>138.659493</v>
       </c>
       <c r="I5">
-        <v>0.3046632285488233</v>
+        <v>0.5307607770439682</v>
       </c>
       <c r="J5">
-        <v>0.3046632285488233</v>
+        <v>0.5307607770439681</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -756,10 +756,10 @@
         <v>8.766607785432001</v>
       </c>
       <c r="S5">
-        <v>0.006795686908380009</v>
+        <v>0.01183892155682739</v>
       </c>
       <c r="T5">
-        <v>0.006795686908380009</v>
+        <v>0.01183892155682739</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>64.69033266666666</v>
+        <v>29.71744933333333</v>
       </c>
       <c r="H6">
-        <v>194.070998</v>
+        <v>89.152348</v>
       </c>
       <c r="I6">
-        <v>0.4264136233238083</v>
+        <v>0.3412573382175446</v>
       </c>
       <c r="J6">
-        <v>0.4264136233238083</v>
+        <v>0.3412573382175446</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,16 +812,16 @@
         <v>0.9776944302049534</v>
       </c>
       <c r="Q6">
-        <v>59.75715571472777</v>
+        <v>27.45124617625556</v>
       </c>
       <c r="R6">
-        <v>537.81440143255</v>
+        <v>247.0612155863</v>
       </c>
       <c r="S6">
-        <v>0.4169022244872004</v>
+        <v>0.3336453988418613</v>
       </c>
       <c r="T6">
-        <v>0.4169022244872004</v>
+        <v>0.3336453988418613</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>64.69033266666666</v>
+        <v>29.71744933333333</v>
       </c>
       <c r="H7">
-        <v>194.070998</v>
+        <v>89.152348</v>
       </c>
       <c r="I7">
-        <v>0.4264136233238083</v>
+        <v>0.3412573382175446</v>
       </c>
       <c r="J7">
-        <v>0.4264136233238083</v>
+        <v>0.3412573382175446</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -874,16 +874,16 @@
         <v>0.02230556979504659</v>
       </c>
       <c r="Q7">
-        <v>1.363327197505778</v>
+        <v>0.6262853388835556</v>
       </c>
       <c r="R7">
-        <v>12.269944777552</v>
+        <v>5.636568049952</v>
       </c>
       <c r="S7">
-        <v>0.009511398836607912</v>
+        <v>0.007611939375683261</v>
       </c>
       <c r="T7">
-        <v>0.009511398836607912</v>
+        <v>0.007611939375683261</v>
       </c>
     </row>
   </sheetData>
